--- a/biology/Zoologie/Acanthophrysella_pectinata/Acanthophrysella_pectinata.xlsx
+++ b/biology/Zoologie/Acanthophrysella_pectinata/Acanthophrysella_pectinata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acanthophrysella pectinata, unique représentant du genre Acanthophrysella, est une espèce d'opilions laniatores de la famille des Assamiidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Tanzanie[1]. Elle se rencontre dans les monts Ukinga et vers Tanga.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Tanzanie. Elle se rencontre dans les monts Ukinga et vers Tanga.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Acanthophrysella pectinata mesure de 3 à 4 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Acanthophrysella pectinata mesure de 3 à 4 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Acanthophrys pectinata par Loman en 1902. Le nom Acanthophrysella Loman, 1902 étant préoccupé par Acanthophrys A. Milne-Edwards, 1865, il est renommé Acanthophrysella par Strand en 1911[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Acanthophrys pectinata par Loman en 1902. Le nom Acanthophrysella Loman, 1902 étant préoccupé par Acanthophrys A. Milne-Edwards, 1865, il est renommé Acanthophrysella par Strand en 1911.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Loman, 1902 : « Neue aussereuropäische Opilioniden. » Zoologische Jahrbücher / Abteilung für Systematik, Ökologie und Geographie der Tiere, vol. 16, no , p. 163–216 (texte intégral).
 Strand, 1911 : « Spinnentiere aus Neuguinea (Opiliones, Psechridae uns Clubionidae) gesammelt von Dr. Schlaghauf. » Zoologische Abhandlungen, Staatliches Museum für Tierkunde in Dresden, vol. 13, no 5, p. 1–16.</t>
